--- a/NewIndex - data.xlsx
+++ b/NewIndex - data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Engineering\Eli Saunders\Python\NewCompiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4FC8F4-5EFD-492A-BBDC-7A04802228DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A749E-AB85-474F-80BD-C6829050B7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-405" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Index!$A$1:$C$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Index!$A$1:$C$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Index!$A$1:$C$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructions!$A$1:$C$10</definedName>
   </definedNames>
@@ -517,18 +517,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,8 +798,8 @@
   </sheetPr>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,15 +1662,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C113" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:C71" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C71">
-      <sortCondition ref="C1:C113"/>
+      <sortCondition ref="C1:C71"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
